--- a/Service/People/src/main/resources/excel/people_excel.xlsx
+++ b/Service/People/src/main/resources/excel/people_excel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zz\zz20181106\GoSunBigData\Service\People\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zz\zz20181119\GoSunBigData\Service\People\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598EC0E-C2AE-4190-B0D6-2F3862A247A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B795E-D1D2-434D-8356-657CCB1F81D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="侦码后台信息" sheetId="3" r:id="rId1"/>
+    <sheet name="人口库导入" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -509,7 +509,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Service/People/src/main/resources/excel/people_excel.xlsx
+++ b/Service/People/src/main/resources/excel/people_excel.xlsx
@@ -1,87 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zz\zz20181119\GoSunBigData\Service\People\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B795E-D1D2-434D-8356-657CCB1F81D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="人口库导入" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>身份证</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>小区</t>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>职业</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>出生日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>现居地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>户籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>籍贯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文化程度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李分</t>
+  </si>
+  <si>
+    <t>230206199103080510</t>
+  </si>
+  <si>
+    <t>北京市东城区和平里街道</t>
+  </si>
+  <si>
+    <t>浙江省杭州市江干区探梅坊10</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>程序猿</t>
+  </si>
+  <si>
+    <t>1990-11-10</t>
+  </si>
+  <si>
+    <t>杭州市江干1楼</t>
+  </si>
+  <si>
+    <t>江西 / 南昌</t>
+  </si>
+  <si>
+    <t>共青团员</t>
+  </si>
+  <si>
+    <t>本科</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +105,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,25 +112,160 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +274,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,12 +488,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -171,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,36 +758,77 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 12" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="常规 12" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,35 +1115,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,371 +1150,354 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"男,女,未知"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"群众,共青团员,中共预备党员,中共党员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,台盟盟员,无党派人士"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"小学,初中,高中,职高,中专,大专,本科,硕士,博士,博士后"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Service/People/src/main/resources/excel/people_excel.xlsx
+++ b/Service/People/src/main/resources/excel/people_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="人口库导入" sheetId="3" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>230206199103080510</t>
   </si>
   <si>
-    <t>北京市东城区和平里街道</t>
-  </si>
-  <si>
-    <t>浙江省杭州市江干区探梅坊10</t>
+    <t>江西省南昌市高新区</t>
+  </si>
+  <si>
+    <t>昌东花园小区</t>
   </si>
   <si>
     <t>男</t>
@@ -70,7 +70,7 @@
     <t>1990-11-10</t>
   </si>
   <si>
-    <t>杭州市江干1楼</t>
+    <t>江西省南昌市高新区昌东花园小区5单元</t>
   </si>
   <si>
     <t>江西 / 南昌</t>
@@ -87,13 +87,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,19 +112,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,38 +160,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +215,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,40 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -274,193 +267,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +485,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -513,17 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,15 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,6 +541,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,9 +571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,158 +587,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,19 +748,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,21 +1111,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
@@ -1212,288 +1202,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
       <formula1>"男,女,未知"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 J3:J1048576">
       <formula1>"群众,共青团员,中共预备党员,中共党员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,台盟盟员,无党派人士"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K3:K1048576">
       <formula1>"小学,初中,高中,职高,中专,大专,本科,硕士,博士,博士后"</formula1>
     </dataValidation>
   </dataValidations>
